--- a/public/The Web.xlsx
+++ b/public/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="47">
   <si>
     <t>from</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Boyan Ivandjikov</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex Weatheril </t>
+    <t>Alex Wetherill</t>
   </si>
   <si>
     <t>Jim Bailey</t>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Rachael Collins</t>
+  </si>
+  <si>
+    <t>Alison Bell</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1310,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>

--- a/public/The Web.xlsx
+++ b/public/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="62">
   <si>
     <t>from</t>
   </si>
@@ -152,6 +152,51 @@
   </si>
   <si>
     <t>Alison Bell</t>
+  </si>
+  <si>
+    <t>Fiona Eades</t>
+  </si>
+  <si>
+    <t>Tom Perry</t>
+  </si>
+  <si>
+    <t>Joe Sunley</t>
+  </si>
+  <si>
+    <t>Charlotte Clare</t>
+  </si>
+  <si>
+    <t>Alistair Pedley</t>
+  </si>
+  <si>
+    <t>Lucy Haines</t>
+  </si>
+  <si>
+    <t>Eddie Narbett</t>
+  </si>
+  <si>
+    <t>Sasha Cheplin</t>
+  </si>
+  <si>
+    <t>Freddie Carcas</t>
+  </si>
+  <si>
+    <t>Grace Malloy</t>
+  </si>
+  <si>
+    <t>Tom Lines</t>
+  </si>
+  <si>
+    <t>Roanne Lilley</t>
+  </si>
+  <si>
+    <t>Claire Stansfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ellie Bailes </t>
+  </si>
+  <si>
+    <t>Laura King</t>
   </si>
 </sst>
 </file>
@@ -1335,23 +1380,235 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1"/>
     <row r="73" ht="15.75" customHeight="1"/>

--- a/public/The Web.xlsx
+++ b/public/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="62">
   <si>
     <t>from</t>
   </si>
@@ -1513,7 +1513,7 @@
       <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1593,6 +1593,9 @@
       </c>
       <c r="C69" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">

--- a/public/The Web.xlsx
+++ b/public/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="169">
   <si>
     <t>from</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Boyan Ivandjikov</t>
   </si>
   <si>
-    <t>Alex Wetherill</t>
+    <t>Wozzle</t>
   </si>
   <si>
     <t>Jim Bailey</t>
@@ -85,13 +85,19 @@
     <t>o</t>
   </si>
   <si>
+    <t>Harry Henriksen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jess Ensoll </t>
   </si>
   <si>
     <t xml:space="preserve">Lizzie Horsler </t>
   </si>
   <si>
-    <t xml:space="preserve">Geogia Leadingham </t>
+    <t>stuoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia Leadingham </t>
   </si>
   <si>
     <t xml:space="preserve">Nea Shingler </t>
@@ -145,15 +151,27 @@
     <t>Felix Wilson</t>
   </si>
   <si>
+    <t>Dan Spencer</t>
+  </si>
+  <si>
     <t>Niamh Hunter</t>
   </si>
   <si>
     <t>Rachael Collins</t>
   </si>
   <si>
+    <t>Holly Stodgell</t>
+  </si>
+  <si>
     <t>Alison Bell</t>
   </si>
   <si>
+    <t>Emma Halliwell</t>
+  </si>
+  <si>
+    <t>hairy minge</t>
+  </si>
+  <si>
     <t>Fiona Eades</t>
   </si>
   <si>
@@ -163,7 +181,7 @@
     <t>Joe Sunley</t>
   </si>
   <si>
-    <t>Charlotte Clare</t>
+    <t>Charles LeClerc</t>
   </si>
   <si>
     <t>Alistair Pedley</t>
@@ -181,7 +199,7 @@
     <t>Freddie Carcas</t>
   </si>
   <si>
-    <t>Grace Malloy</t>
+    <t>Grace Molloy</t>
   </si>
   <si>
     <t>Tom Lines</t>
@@ -197,13 +215,316 @@
   </si>
   <si>
     <t>Laura King</t>
+  </si>
+  <si>
+    <t>Pedley</t>
+  </si>
+  <si>
+    <t>Valerie Ebony</t>
+  </si>
+  <si>
+    <t>freshmex</t>
+  </si>
+  <si>
+    <t>Natalia Drozd</t>
+  </si>
+  <si>
+    <t>Easy Sunley</t>
+  </si>
+  <si>
+    <t>Jason Gayman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shuoc </t>
+  </si>
+  <si>
+    <t>Lamine Yamal</t>
+  </si>
+  <si>
+    <t>Vadimir</t>
+  </si>
+  <si>
+    <t>Toby Caz</t>
+  </si>
+  <si>
+    <t>Liam Edwards</t>
+  </si>
+  <si>
+    <t>Ben Goodwin</t>
+  </si>
+  <si>
+    <t>Fridge Restock</t>
+  </si>
+  <si>
+    <t>Evie Conway</t>
+  </si>
+  <si>
+    <t>Pete Molloy</t>
+  </si>
+  <si>
+    <t>Ben Breeze</t>
+  </si>
+  <si>
+    <t>Sam Fielding</t>
+  </si>
+  <si>
+    <t>Louis MacMillan</t>
+  </si>
+  <si>
+    <t>Joe Wright</t>
+  </si>
+  <si>
+    <t>Eilidh Campbell</t>
+  </si>
+  <si>
+    <t>Kirsty Campbell</t>
+  </si>
+  <si>
+    <t>Kat McGougan</t>
+  </si>
+  <si>
+    <t>Jenny Blackwood</t>
+  </si>
+  <si>
+    <t>Freya Shepherd</t>
+  </si>
+  <si>
+    <t>Matt Leitch</t>
+  </si>
+  <si>
+    <t>Matt Daly</t>
+  </si>
+  <si>
+    <t>Dan Barber</t>
+  </si>
+  <si>
+    <t>Laraia</t>
+  </si>
+  <si>
+    <t>Blayne</t>
+  </si>
+  <si>
+    <t>Ali T</t>
+  </si>
+  <si>
+    <t>Rob Sparks</t>
+  </si>
+  <si>
+    <t>Tallulah Wright</t>
+  </si>
+  <si>
+    <t>Ellen Crombie</t>
+  </si>
+  <si>
+    <t>Alex Crawshaw</t>
+  </si>
+  <si>
+    <t>Herbie Ashworth</t>
+  </si>
+  <si>
+    <t>Ben Squire</t>
+  </si>
+  <si>
+    <t>Barney SB</t>
+  </si>
+  <si>
+    <t>Imogen Pieters</t>
+  </si>
+  <si>
+    <t>Jakapo</t>
+  </si>
+  <si>
+    <t>Finlay Ross</t>
+  </si>
+  <si>
+    <t>Euan Tryner</t>
+  </si>
+  <si>
+    <t>Pippa Carcas</t>
+  </si>
+  <si>
+    <t>Conor Gourley</t>
+  </si>
+  <si>
+    <t>Flurry</t>
+  </si>
+  <si>
+    <t>Hannah Mo</t>
+  </si>
+  <si>
+    <t>Rosie Spencer</t>
+  </si>
+  <si>
+    <t>Gay Barber</t>
+  </si>
+  <si>
+    <t>Rimicans</t>
+  </si>
+  <si>
+    <t>Daisy Mcnamara</t>
+  </si>
+  <si>
+    <t>CITPA</t>
+  </si>
+  <si>
+    <t>Peter Molloy</t>
+  </si>
+  <si>
+    <t>Alice Wilson</t>
+  </si>
+  <si>
+    <t>Louis McMillan</t>
+  </si>
+  <si>
+    <t>Iris McMillan</t>
+  </si>
+  <si>
+    <t>Surface News</t>
+  </si>
+  <si>
+    <t>Amelie Dryer</t>
+  </si>
+  <si>
+    <t>Saskia Chaplin</t>
+  </si>
+  <si>
+    <t>Fredie Fearn</t>
+  </si>
+  <si>
+    <t>Finlay RD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finlay RD </t>
+  </si>
+  <si>
+    <t>Charity Tweaks</t>
+  </si>
+  <si>
+    <t>Stan Heap</t>
+  </si>
+  <si>
+    <t>Alisson Bell</t>
+  </si>
+  <si>
+    <t>Hog Barrie</t>
+  </si>
+  <si>
+    <t>Emma Crawford</t>
+  </si>
+  <si>
+    <t>Swaz</t>
+  </si>
+  <si>
+    <t>Muzza</t>
+  </si>
+  <si>
+    <t>Isla McNair</t>
+  </si>
+  <si>
+    <t>Eve Young</t>
+  </si>
+  <si>
+    <t>Alex Mackenzie</t>
+  </si>
+  <si>
+    <t>Joseph O'Beefe</t>
+  </si>
+  <si>
+    <t>Ane</t>
+  </si>
+  <si>
+    <t>Anya Maclean</t>
+  </si>
+  <si>
+    <t>Olivia Vareille</t>
+  </si>
+  <si>
+    <t>Noah Howlett</t>
+  </si>
+  <si>
+    <t>Ella Revitt</t>
+  </si>
+  <si>
+    <t>Maya Miler</t>
+  </si>
+  <si>
+    <t>Ellie Bales</t>
+  </si>
+  <si>
+    <t>50 cent</t>
+  </si>
+  <si>
+    <t>Manscape Baker</t>
+  </si>
+  <si>
+    <t>Jack Trainer</t>
+  </si>
+  <si>
+    <t>Lucy Strover</t>
+  </si>
+  <si>
+    <t>Finlay Todd</t>
+  </si>
+  <si>
+    <t>Sasha Chepelin</t>
+  </si>
+  <si>
+    <t>Jura McMillan</t>
+  </si>
+  <si>
+    <t>Ali Masson</t>
+  </si>
+  <si>
+    <t>Matt Knowles</t>
+  </si>
+  <si>
+    <t>Rachel Brown</t>
+  </si>
+  <si>
+    <t>Jammond</t>
+  </si>
+  <si>
+    <t>Heather High</t>
+  </si>
+  <si>
+    <t>Andy T</t>
+  </si>
+  <si>
+    <t>Hannah A</t>
+  </si>
+  <si>
+    <t>Luke Graham</t>
+  </si>
+  <si>
+    <t>Mairi Eades</t>
+  </si>
+  <si>
+    <t>Holly Stodgel</t>
+  </si>
+  <si>
+    <t>Nogger Bennet</t>
+  </si>
+  <si>
+    <t>Caitlin Hall</t>
+  </si>
+  <si>
+    <t>hong dong</t>
+  </si>
+  <si>
+    <t>Finlay Raynor</t>
+  </si>
+  <si>
+    <t>Jamie Liversidge</t>
+  </si>
+  <si>
+    <t>strava_rizz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -237,8 +558,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,12 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF2CC054"/>
         <bgColor rgb="FF2CC054"/>
       </patternFill>
@@ -287,6 +607,30 @@
         <bgColor rgb="FFD46B00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -294,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -319,19 +663,30 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -603,7 +958,7 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -617,10 +972,10 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -637,7 +992,7 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -648,13 +1003,13 @@
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -665,13 +1020,13 @@
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -682,13 +1037,13 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -699,13 +1054,13 @@
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -713,7 +1068,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -730,16 +1085,16 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -747,33 +1102,33 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -781,64 +1136,64 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>23</v>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -849,16 +1204,16 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>26</v>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -866,33 +1221,33 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>27</v>
+      <c r="B19" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>28</v>
+      <c r="B20" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -900,16 +1255,16 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -917,50 +1272,50 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -968,61 +1323,61 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
+      <c r="A25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="A27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1031,38 +1386,38 @@
       <c r="D28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>24</v>
+      <c r="A29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>28</v>
+      <c r="A30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -1070,8 +1425,8 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>36</v>
+      <c r="A31" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -1079,7 +1434,7 @@
       <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1087,16 +1442,16 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>29</v>
+      <c r="A32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1104,13 +1459,13 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -1121,78 +1476,95 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11" t="s">
+      <c r="C34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="B35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>12</v>
+      <c r="B36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>23</v>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -1201,563 +1573,3019 @@
       <c r="D39" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="E39" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>25</v>
+      <c r="B41" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>12</v>
+      <c r="B42" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>12</v>
+      <c r="B43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>39</v>
+      <c r="A44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D44" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>12</v>
+      <c r="C45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="C54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E139" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E185" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="A187" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="A188" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="A189" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="A190" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="A191" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="A192" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="A193" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="A194" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="A195" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="A196" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="A197" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="A198" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="A199" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="A200" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="B202" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="A205" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C205" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="D205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B212" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
+      <c r="C212" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="217" ht="15.75" customHeight="1"/>
     <row r="218" ht="15.75" customHeight="1"/>
     <row r="219" ht="15.75" customHeight="1"/>
@@ -2542,6 +5370,22 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/public/The Web.xlsx
+++ b/public/The Web.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="167">
   <si>
     <t>from</t>
   </si>
@@ -211,7 +211,7 @@
     <t>Claire Stansfield</t>
   </si>
   <si>
-    <t xml:space="preserve">Ellie Bailes </t>
+    <t>Ellie Bales</t>
   </si>
   <si>
     <t>Laura King</t>
@@ -361,9 +361,6 @@
     <t>Rimicans</t>
   </si>
   <si>
-    <t>Daisy Mcnamara</t>
-  </si>
-  <si>
     <t>CITPA</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Maya Miler</t>
   </si>
   <si>
-    <t>Ellie Bales</t>
-  </si>
-  <si>
     <t>50 cent</t>
   </si>
   <si>
@@ -508,7 +502,7 @@
     <t>Caitlin Hall</t>
   </si>
   <si>
-    <t>hong dong</t>
+    <t>hong_dong</t>
   </si>
   <si>
     <t>Finlay Raynor</t>
@@ -3432,27 +3426,27 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C149" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>27</v>
+      <c r="E149" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>12</v>
@@ -3466,10 +3460,10 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>12</v>
@@ -3486,7 +3480,7 @@
         <v>103</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>12</v>
@@ -3534,10 +3528,10 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B155" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>10</v>
@@ -3551,10 +3545,10 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>10</v>
@@ -3568,10 +3562,10 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>12</v>
@@ -3585,7 +3579,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>107</v>
@@ -3602,10 +3596,10 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>128</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>12</v>
@@ -3619,7 +3613,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>6</v>
@@ -3639,7 +3633,7 @@
         <v>114</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>12</v>
@@ -3653,10 +3647,10 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>12</v>
@@ -3670,10 +3664,10 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>10</v>
@@ -3707,7 +3701,7 @@
         <v>40</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>12</v>
@@ -3741,7 +3735,7 @@
         <v>40</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>12</v>
@@ -3755,10 +3749,10 @@
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>10</v>
@@ -3772,10 +3766,10 @@
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>10</v>
@@ -3789,7 +3783,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>96</v>
@@ -3806,10 +3800,10 @@
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B171" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>12</v>
@@ -3826,7 +3820,7 @@
         <v>51</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>10</v>
@@ -3843,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>12</v>
@@ -3860,7 +3854,7 @@
         <v>24</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>12</v>
@@ -3877,7 +3871,7 @@
         <v>24</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>12</v>
@@ -3894,7 +3888,7 @@
         <v>110</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>7</v>
@@ -3911,7 +3905,7 @@
         <v>90</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>12</v>
@@ -3925,10 +3919,10 @@
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>10</v>
@@ -3945,7 +3939,7 @@
         <v>77</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>12</v>
@@ -3959,7 +3953,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="8" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>78</v>
@@ -3976,7 +3970,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>78</v>
@@ -3993,7 +3987,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>15</v>
@@ -4010,7 +4004,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>110</v>
@@ -4047,7 +4041,7 @@
         <v>75</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>10</v>
@@ -4112,7 +4106,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>5</v>
@@ -4129,10 +4123,10 @@
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>7</v>
@@ -4149,7 +4143,7 @@
         <v>96</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
@@ -4163,7 +4157,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>64</v>
@@ -4180,7 +4174,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B193" s="8" t="s">
         <v>18</v>
@@ -4197,10 +4191,10 @@
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>10</v>
@@ -4217,7 +4211,7 @@
         <v>45</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>10</v>
@@ -4251,7 +4245,7 @@
         <v>36</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>10</v>
@@ -4268,7 +4262,7 @@
         <v>58</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>12</v>
@@ -4302,7 +4296,7 @@
         <v>35</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>10</v>
@@ -4316,10 +4310,10 @@
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>10</v>
@@ -4350,10 +4344,10 @@
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>10</v>
@@ -4367,10 +4361,10 @@
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>12</v>
@@ -4418,7 +4412,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>87</v>
@@ -4435,7 +4429,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>87</v>
@@ -4469,7 +4463,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B210" s="8" t="s">
         <v>87</v>
@@ -4489,7 +4483,7 @@
         <v>95</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>10</v>
@@ -4503,7 +4497,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>9</v>
@@ -4520,10 +4514,10 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>12</v>
@@ -4537,13 +4531,13 @@
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B214" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>8</v>
@@ -4554,7 +4548,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>91</v>
@@ -4571,13 +4565,13 @@
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>20</v>
